--- a/biology/Médecine/Anomalie_de_Neuhauser/Anomalie_de_Neuhauser.xlsx
+++ b/biology/Médecine/Anomalie_de_Neuhauser/Anomalie_de_Neuhauser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anomalie de Neuhauser (Neuhauser’s ligamentum arteriosum) est une malformation congénitale de la crosse de l’aorte liée à une anomalie de développement des 4es arcs aortiques embryonnaires décrite radiologiquement par Edward B.D. Neuhauser, radiologue américain[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anomalie de Neuhauser (Neuhauser’s ligamentum arteriosum) est une malformation congénitale de la crosse de l’aorte liée à une anomalie de développement des 4es arcs aortiques embryonnaires décrite radiologiquement par Edward B.D. Neuhauser, radiologue américain.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une anomalie de développement des arcs aortiques lors de l'embryogenèse[2] dans laquelle la crosse de l'aorte et l’aorte descendante sont situées à droite, alors que le ligament artériel, naissant de la branche gauche de l’artère pulmonaire, passe derrière la trachée et l’œsophage pour rejoindre la crosse aortique[3].
-La classification anatomique est issue du schéma de Corone[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une anomalie de développement des arcs aortiques lors de l'embryogenèse dans laquelle la crosse de l'aorte et l’aorte descendante sont situées à droite, alors que le ligament artériel, naissant de la branche gauche de l’artère pulmonaire, passe derrière la trachée et l’œsophage pour rejoindre la crosse aortique.
+La classification anatomique est issue du schéma de Corone.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La clinique résulte de la compression de la trachée et de l’œsophage. Le plus souvent latente, cette anomalie peut donner des troubles respiratoires par compression trachéale entraînant alors des symptômes à type de stridor et/ou infections pulmonaires à répétition ou une dysphagie par compression œsophagienne.
 </t>
@@ -574,7 +590,9 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un transit œsogastroduodénal (TOGD) permet de mettre en évidence une image d'encoche de l’œsophage due à la compression aortique.
 </t>
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
